--- a/assets/data/20250418_trend_summary_en.xlsx
+++ b/assets/data/20250418_trend_summary_en.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,27 +492,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence </t>
+          <t xml:space="preserve"> Innovation-driven development </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87 </t>
+          <t xml:space="preserve"> 37 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases new AI Ethics Framework with focus on safety, transparency, and accountability for generative AI systems </t>
+          <t xml:space="preserve"> China unveiled a new 5-year innovation strategy prioritizing "new quality productivity" across strategic sectors including AI, quantum computing, and advanced manufacturing. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhua.net/tech/20250416/aiguidelinesrelease </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/20250415/china-unveils-new-innovation-strategy </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Ministry of Science and Technology, in collaboration with the Cyberspace Administration of China, released the "Guidelines for Ethical Governance of Generative Artificial Intelligence" on April 16, 2025. The framework emphasizes safety mechanisms, algorithmic transparency, and developer accountability. It introduces a three-tier risk assessment system and requires regular audits for high-risk AI applications. The guidelines take effect June 1, with a 6-month compliance period for existing systems. </t>
+          <t xml:space="preserve"> The State Council released its 2025-2030 Innovation-Driven Development Strategy, emphasizing breakthroughs in core technologies and digital transformation. The plan aims to increase R&amp;D spending to 3.2% of GDP by 2030 and establishes 12 national innovation clusters focused on strategic emerging industries. Premier Li emphasized that innovation remains the "primary driving force" for China's continued economic development.</t>
         </is>
       </c>
     </row>
@@ -524,508 +524,535 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 34 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council releases implementation plan for New Quality Productivity with emphasis on AI, quantum computing, and green technology </t>
+          <t xml:space="preserve"> Beijing announced a $75 billion fund to accelerate "new quality productivity" investments in semiconductor manufacturing, AI infrastructure, and green technology. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/content_5782396.htm </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3257814/china-announces-75-billion-fund-new-quality-productivity </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 15, 2025, China's State Council published a comprehensive implementation plan for developing "New Quality Productivity" through 2030. The plan identifies 18 key technology areas including AI, quantum technology, biotechnology, and advanced manufacturing. It establishes innovation hubs in Beijing, Shanghai, Shenzhen, and Hefei, and allocates ¥780 billion for fundamental research over five years. The initiative aims to increase R&amp;D spending to 3.2% of GDP by 2030. </t>
+          <t xml:space="preserve"> China's Ministry of Finance, in coordination with the NDRC, announced a major funding initiative aimed at upgrading industrial capabilities through advanced manufacturing technologies. The fund will prioritize domestic semiconductor development, AI computing infrastructure, and green manufacturing processes. This represents China's largest-ever directed investment in emerging technologies, with 40% allocated to chip manufacturing and advanced computing.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum communication </t>
+          <t xml:space="preserve"> Artificial intelligence </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes world's first intercontinental quantum-secured video conference between Beijing and Zurich </t>
+          <t xml:space="preserve"> China released its first comprehensive AI ethics framework establishing guidelines for responsible AI development and deployment across sectors. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/innovation/article/3257836/china-launches-first-intercontinental-quantum-communication </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1318543.shtml </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 14, 2025, Chinese and Swiss scientists successfully conducted the first intercontinental quantum-secured video conference using China's Micius-2 satellite. The Beijing-Zurich link demonstrated quantum key distribution at unprecedented distances, achieving transmission rates of 50 kilobits per second with quantum-level security. The project involved collaboration between the University of Science and Technology of China and ETH Zurich, marking a major milestone in practical quantum communications. </t>
+          <t xml:space="preserve"> The Cyberspace Administration of China (CAC) published the "Ethical Guidelines for Artificial Intelligence Development," China's first comprehensive national AI ethics framework. The guidelines establish principles for transparency, data privacy, algorithmic fairness, and human-AI collaboration. They require AI systems to undergo ethical reviews, particularly for high-risk applications in healthcare, finance, and public services. The framework also addresses international cooperation, calling for global governance mechanisms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International innovation platform </t>
+          <t xml:space="preserve"> Science and technology innovation policy </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62 </t>
+          <t xml:space="preserve"> 27 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and EU launch €2 billion joint innovation fund focused on climate technology </t>
+          <t xml:space="preserve"> China's State Council issued a new policy mandating that 15% of government procurement budgets be allocated to products from innovative tech startups and SMEs. </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ec.europa.eu/news/eu-china-innovation-fund-launch-20250413 </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/policies/latestreleases/202504/16/content_WS6642a901c6d0868f4e8b1c2a.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 13, 2025, China and the European Union announced the establishment of a €2 billion joint innovation fund focused on climate technologies. The EU-China Climate Innovation Fund will finance collaborative projects in renewable energy, energy storage, carbon capture, and sustainable materials. The fund will be managed jointly by the European Investment Bank and China Development Bank, with equal financial contributions from both sides. First project selections are expected by October 2025. </t>
+          <t xml:space="preserve"> The policy aims to leverage government purchasing power to support domestic innovation, particularly in digital services, green technology, and advanced manufacturing. It establishes streamlined certification processes for qualifying companies and requires state-owned enterprises to adopt similar procurement targets. The measure, part of broader efforts to reduce reliance on foreign technology, takes effect June 1, 2025, and includes specific provisions for companies less than 8 years old.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joint research center </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 </t>
+          <t xml:space="preserve"> 26 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Saudi Arabia inaugurate $1.5 billion Advanced Materials Research Center in NEOM </t>
+          <t xml:space="preserve"> Chinese researchers announced a breakthrough in advanced semiconductor packaging technology for AI chips, reducing power consumption by 35%. </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://saudigazette.com.sa/article/625749/neom-china-research-center </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-claims-breakthrough-in-chip-packaging-for-AI-applications </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Saudi Arabia officially opened the NEOM-China Advanced Materials Research Center on April 12, 2025, following three years of development. The $1.5 billion facility will focus on developing high-performance materials for renewable energy, construction, and aerospace applications. The center employs 320 researchers, with equal representation from both countries, and includes specialized laboratories for nanomaterials, composite materials, and computational materials science. Five initial commercialization projects were announced at the opening. </t>
+          <t xml:space="preserve"> A research team from Tsinghua University and the Chinese Academy of Sciences developed a new 3D stacking technique for high-bandwidth memory in AI accelerator chips. The approach uses novel thermal management and interconnect materials to overcome previous limitations. Independent experts confirmed the significance of the advance, which allows for more computing power while consuming less energy. The technology is expected to be commercialized within 12-18 months through partnerships with domestic chipmakers.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carbon fiber composites </t>
+          <t xml:space="preserve"> Digital economy policy </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COMAC and Chinese Academy of Sciences develop new carbon fiber composites reducing aircraft weight by 18% </t>
+          <t xml:space="preserve"> China's Ministry of Industry and Information Technology launched a digital economy standardization initiative covering blockchain, industrial internet, and cross-border data flows. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caac.gov.cn/XXGK/XXGK/ZCFB/202504/t20250417_219876.html </t>
+          <t xml:space="preserve"> https://www.caixinglobal.com/2025-04-14/china-launches-digital-economy-standardization-initiative-101973542.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Commercial Aircraft Corporation of China (COMAC) and the Chinese Academy of Sciences announced on April 17, 2025, the successful development of next-generation carbon fiber composite materials for commercial aircraft. The new materials offer 18% weight reduction compared to current composites while maintaining structural integrity. The technology will be implemented in the C929 wide-body aircraft program, potentially reducing fuel consumption by 7.5% and operating costs by 5.2%. This breakthrough represents domestic innovation in a field previously dominated by foreign suppliers. </t>
+          <t xml:space="preserve"> The initiative establishes 87 new technical standards across digital infrastructure, data governance, and emerging technologies. It prioritizes interoperability between domestic platforms and systems while creating a framework for secure cross-border data flows. The standards create certification requirements for digital service providers and establish compliance timelines. Industry representatives from tech giants and SMEs participated in the development process through public consultations.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology development plan </t>
+          <t xml:space="preserve"> Digital RMB </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases 14th Five-Year Plan for International Scientific and Technological Cooperation </t>
+          <t xml:space="preserve"> The People's Bank of China expanded its digital yuan pilot to include international transactions with selected trading partners, starting with ASEAN countries. </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/tztg/202504/t20250414_488732.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-expands-digital-yuan-international-transactions-2025-04-13/ </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 14, 2025, China's Ministry of Science and Technology released the "14th Five-Year Plan for International Scientific and Technological Cooperation (2025-2030)." The plan outlines China's strategy for global science collaboration, including the establishment of 50 new joint research facilities with international partners, programs for hosting 10,000 foreign scientists annually, and participation in 15 major multinational scientific projects. The plan specifically prioritizes cooperation in climate science, space exploration, health research, and advanced materials. </t>
+          <t xml:space="preserve"> The PBOC announced that the digital yuan (e-CNY) can now be used for certain cross-border transactions with trade partners in Thailand, Malaysia, and Singapore as the first phase of internationalization. The pilot program focuses on settlement for small and medium-sized trading companies and establishes currency swap mechanisms with participating central banks. Officials emphasized the system's reduced transaction costs and independence from Western financial infrastructure.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital economy policy </t>
+          <t xml:space="preserve"> Science and technology system reform </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases digital RMB whitepaper detailing expansion plans to all major cities by 2027 </t>
+          <t xml:space="preserve"> China announced reforms to its scientific research evaluation system, reducing emphasis on publication metrics and increasing focus on technological breakthroughs. </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.pbc.gov.cn/en/news/202504/t20250412_self_dev_119463.shtml </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01142-x </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The People's Bank of China published a comprehensive whitepaper on April 12, 2025, outlining the expansion of digital RMB (e-CNY) to all Chinese cities with populations over 5 million by 2027. The document details technical specifications, privacy protections, and cross-border capabilities. The e-CNY system will introduce programmable payment features, conditional transfers, and smart contract integration. The whitepaper also addresses international cooperation for potential cross-border digital currency exchange with several Asian and European central banks. </t>
+          <t xml:space="preserve"> The Chinese Academy of Sciences and Ministry of Science and Technology jointly issued new guidelines that fundamentally reform how scientific research is evaluated and funded. The changes reduce emphasis on journal impact factors and publication counts in favor of actual technological and economic impact. The reforms also streamline grant applications, give more autonomy to research institutions in fund allocation, and create special funding streams for high-risk exploratory research.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Innovation-driven development </t>
+          <t xml:space="preserve"> Integration of industry, academia and research </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes ¥150 billion fund for semiconductor self-sufficiency with focus on advanced node production </t>
+          <t xml:space="preserve"> Beijing launched 10 new national innovation centers designed to accelerate commercialization of research in quantum computing, biotechnology, and advanced materials. </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-launches-massive-chip-fund-focused-on-advanced-nodes </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/17/WS660e1234a310e074ea38f5c4.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 15, 2025, China launched a new ¥150 billion ($23 billion) national investment fund focused on semiconductor self-sufficiency. The fund, jointly established by the Ministry of Finance, China Development Bank, and major tech companies, will prioritize investments in advanced node manufacturing (7nm and below), semiconductor equipment, EDA software, and specialized materials. Approximately 60% of the fund will target manufacturing capacity, while 25% will support R&amp;D, and 15% will fund talent development programs. </t>
+          <t xml:space="preserve"> The Ministry of Science and Technology established 10 new National Technology Innovation Centers focusing on quantum computing, biotechnology, advanced materials, and other strategic domains. Each center involves partnerships between top universities, research institutes, and leading companies in their respective fields. The centers will receive 5-year funding packages of approximately $500 million each and operate under new governance models with streamlined intellectual property arrangements designed to accelerate technology transfer.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotechnology </t>
+          <t xml:space="preserve"> Hydrogen energy storage </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China approves first domestic CRISPR gene therapy for beta-thalassemia, challenging Western biotech dominance </t>
+          <t xml:space="preserve"> China's energy authority approved a $3.2 billion national hydrogen energy demonstration project spanning five provinces. </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/13/WS661d8a65a31082fc043bf9de.html </t>
+          <t xml:space="preserve"> https://www.cnstock.com/v_news/sns_yw/202504/4954217.htm </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Medical Products Administration (NMPA) granted approval on April 13, 2025, for the country's first CRISPR-based gene therapy for beta-thalassemia. Developed by Beijing-based GenoCure Biotechnologies, the one-time treatment modifies patients' stem cells to restore hemoglobin production. Clinical trials showed 92% effectiveness in eliminating transfusion dependency. Priced at ¥1.2 million ($185,000) per treatment—significantly lower than similar Western therapies—the approval marks China's entry into advanced gene therapy commercialization. </t>
+          <t xml:space="preserve"> The National Energy Administration approved a comprehensive hydrogen energy demonstration project spanning five provinces (Shandong, Guangdong, Jiangsu, Hebei, and Inner Mongolia). The initiative includes production infrastructure, storage facilities, and transportation networks. The project emphasizes green hydrogen produced through renewable energy and includes applications in industrial processes, transportation, and grid-scale energy storage. It establishes technical standards for hydrogen production, storage, and refueling facilities.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum computing cloud platform </t>
+          <t xml:space="preserve"> Quantum communication </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alibaba Cloud launches 128-qubit quantum computing platform with free access for researchers </t>
+          <t xml:space="preserve"> China launched a satellite dedicated to quantum communication experiments, expanding its quantum network infrastructure. </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/alibaba-cloud-launches-128-qubit-quantum-platform </t>
+          <t xml:space="preserve"> https://spacenews.com/china-launches-satellite-for-quantum-communications-experiments/ </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alibaba Cloud announced on April 16, 2025, the launch of its 128-qubit quantum computing cloud platform, making it available to researchers worldwide with free baseline access. The platform features both superconducting and photonic quantum processors, quantum machine learning libraries, and simulation tools. Alibaba claims the system achieves quantum advantage for certain chemical simulation problems and optimization tasks. The company is partnering with 15 universities globally to develop practical quantum algorithms and applications. </t>
+          <t xml:space="preserve"> China launched the Quantum Science Satellite-2 (QSS-2), a significant expansion of its space-based quantum communications capabilities. The satellite will test new quantum key distribution protocols at greater distances and higher speeds than previous systems. It represents collaboration between the Chinese Academy of Sciences and the University of Science and Technology of China. Officials indicated the system aims to create an "unhackable" communications network for government and financial institutions.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Talent introduction policy </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China designates seven new national innovation demonstration zones focused on aerospace, biotech, and quantum technology </t>
+          <t xml:space="preserve"> China eased visa and residence requirements for foreign science and technology professionals, offering fast-track permanent residency for experts in strategic fields. </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.www.gov.cn/policies/policywatch/202504/16/content_WS661e9a56c6d0868f4e2bf78c.html </t>
+          <t xml:space="preserve"> https://www.chinabankingnews.com/2025/04/12/china-streamlines-visa-requirements-for-foreign-tech-talent/ </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council approved seven new national innovation demonstration zones on April 16, 2025, located in Wuhan, Chengdu, Hangzhou, Guangzhou, Xi'an, Nanjing, and Changsha. Each zone will focus on specific strategic industries: Wuhan (optoelectronics), Chengdu (aerospace), Hangzhou (digital technologies), Guangzhou (biotechnology), Xi'an (artificial intelligence), Nanjing (quantum technology), and Changsha (advanced manufacturing). The zones will receive preferential policies for land use, taxation, and foreign talent recruitment, with a combined investment of ¥320 billion over five years. </t>
+          <t xml:space="preserve"> The Ministry of Science and Technology and National Immigration Administration jointly announced simplified visa and residence procedures for foreign technical experts. The policy creates a special "technology talent" visa category with expedited processing and multi-entry options. It offers pathways to permanent residency after three years for experts in strategic fields like semiconductors, AI, and biotechnology. The policy also establishes support services for foreign professionals, including assistance with housing, education, and healthcare.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brain science data </t>
+          <t xml:space="preserve"> International talent service </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches Brain Science Data Center, the world's largest brain mapping initiative with 100PB storage capacity </t>
+          <t xml:space="preserve"> Shanghai launched the "Global Innovation Talent Hub" with expanded services and benefits for international technology professionals. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://news.sciencenet.cn/htmlnews/2025/4/498871.shtm </t>
+          <t xml:space="preserve"> https://www.shine.cn/news/metro/2504173658/ </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China officially launched its National Brain Science Data Center on April 17, 2025, housing the world's largest repository of neural imaging and mapping data. The Beijing-based facility features 100 petabytes of storage capacity and high-performance computing infrastructure dedicated to brain research. The center will coordinate data collection from 35 research institutions and implement standardized protocols for neural data sharing. International researchers can access non-sensitive data through collaborative agreements, positioning China as a leader in global brain research infrastructure. </t>
+          <t xml:space="preserve"> Shanghai's municipal government established a comprehensive service platform for international technology professionals, providing streamlined work permits, tax incentives, and support services. The initiative includes dedicated innovation zones with preferential policies for startups founded by international entrepreneurs. It creates special international schools and healthcare access for families of technology professionals and offers subsidized housing in key innovation districts.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Satellite Internet </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's Hongyan satellite constellation launches final batch, completing 320-satellite network for global internet coverage </t>
+          <t xml:space="preserve"> China released a catalog of 127 strategic emerging industries eligible for preferential government support and investment. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.spacechina.com/n16421/n17138/c16907124/content.html </t>
+          <t xml:space="preserve"> https://www.yicaiglobal.com/news/china-identifies-127-strategic-emerging-industries-for-policy-support </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Aerospace Science and Technology Corporation (CASC) launched the final batch of 32 Hongyan satellites on April 14, 2025, completing its 320-satellite low Earth orbit constellation. The network now provides global internet coverage with speeds up to 200 Mbps and latency under 30ms. The Hongyan system prioritizes connectivity for Belt and Road Initiative countries and remote areas within China. Commercial services have begun in Asia and Africa, with global service scheduled by July 2025, representing China's answer to SpaceX's Starlink and Amazon's Kuiper constellations. </t>
+          <t xml:space="preserve"> The National Development and Reform Commission issued a comprehensive catalog of strategic emerging industries that will receive preferential policy support, tax incentives, and investment. The list encompasses 127 specific technology domains across next-generation information technology, biotechnology, new materials, advanced manufacturing, green technology, and frontier sciences. The catalog serves as a roadmap for government investment and industrial policy through 2030, with specific growth targets for each sector.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology cooperation agreement </t>
+          <t xml:space="preserve"> Bilateral science and technology joint committee </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Indonesia sign comprehensive science and technology cooperation agreement worth $5 billion </t>
+          <t xml:space="preserve"> China and Germany held a bilateral science and technology joint committee meeting, agreeing to expand cooperation in clean energy and AI research. </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://kemlu.go.id/portal/en/read/4832/berita/indonesia-china-sign-comprehensive-st-agreement </t>
+          <t xml:space="preserve"> https://www.dw.com/en/china-germany-expand-technology-cooperation-despite-growing-tensions/a-66782314 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Indonesia signed a comprehensive Science and Technology Cooperation Agreement on April 15, 2025, encompassing 23 joint projects worth $5 billion over five years. The agreement includes establishing a joint marine research center in Bali, collaborating on clean energy technologies, developing digital infrastructure, and initiating biomedical research partnerships. China will provide training for 2,000 Indonesian scientists and engineers annually. The agreement represents China's largest bilateral science and technology partnership in Southeast Asia and supports Indonesia's digital economy transformation goals. </t>
+          <t xml:space="preserve"> The 10th China-Germany Joint Committee on Science and Technology Cooperation convened in Berlin, resulting in agreements to expand research collaboration in clean energy, artificial intelligence, and advanced manufacturing. The committee established six new joint research programs with €200 million in combined funding. While acknowledging broader geopolitical tensions, both sides emphasized the importance of maintaining scientific exchange. The agreement includes provisions for talent exchange programs and joint innovation centers.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence laboratory </t>
+          <t xml:space="preserve"> Intellectual property protection </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Huawei opens world's largest AI computing center in Shenzhen with 10,000 Ascend chips </t>
+          <t xml:space="preserve"> China's Supreme Court issued new guidelines strengthening intellectual property protections with increased penalties for violations. </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.huawei.com/en/news/2025/4/ai-computing-center-shenzhen </t>
+          <t xml:space="preserve"> https://www.chinaipmagazine.com/en/news-show.asp?id=12703 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Huawei inaugurated what it claims is the world's largest AI computing center in Shenzhen on April 13, 2025. The facility houses 10,000 of Huawei's self-developed Ascend AI chips and delivers 5.8 exaflops of computing power. The center will serve as both a commercial cloud service and research facility, supporting large language model training, scientific simulation, and industrial AI applications. Huawei announced partnerships with 50 Chinese universities and research institutes for priority access. The facility operates entirely on domestically-produced computing hardware, highlighting China's push for technological self-reliance. </t>
+          <t xml:space="preserve"> The Supreme People's Court issued comprehensive guidelines strengthening intellectual property protection across patents, trademarks, and trade secrets. The guidelines increase statutory damages for IP violations and establish specialized IP tribunals in 15 additional cities. They clarify standards for determining infringement and streamline enforcement procedures. The measures specifically address concerns in the pharmaceutical, software, and semiconductor industries, sectors where foreign companies have raised concerns about IP protection.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> R&amp;D investment strategy </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes world's largest hydrogen energy storage plant in Inner Mongolia with 200MW capacity </t>
+          <t xml:space="preserve"> China pledged to increase basic research funding to 12% of total R&amp;D spending by 2027, focusing on breakthrough technologies. </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.cctv.com/2025/04/17/ARTI8f2vLM9azRwBcTVGVftG250417.shtml </t>
+          <t xml:space="preserve"> https://www.scmp.com/news/china/science/article/3257903/china-boost-basic-research-funding-push-technological-breakthroughs </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Grid Corporation of China announced on April 17, 2025, the completion of the world's largest hydrogen energy storage facility in Inner Mongolia. The 200MW plant uses excess renewable energy to produce hydrogen through electrolysis, storing it for electricity generation during peak demand periods. The facility can store up to 400MWh of energy equivalent and connects to a 1GW wind-solar hybrid power base. The project demonstrates China's commitment to solving renewable energy intermittency issues and establishing industrial leadership in hydrogen technologies. </t>
+          <t xml:space="preserve"> The Ministry of Science and Technology announced plans to significantly increase funding for basic scientific research, raising its share of total R&amp;D spending from 6.6% to 12% by 2027. The strategy focuses on physics, mathematics, materials science, and other fundamental disciplines that enable technological breakthroughs. It creates new funding mechanisms for long-term research programs and establishes international collaboration initiatives in basic science. The plan aims to address China's historic underinvestment in foundational research compared to applied technologies.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Science and technology cooperation agreement </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SMIC announces breakthrough in advanced semiconductor packaging with 3D chip stacking technology </t>
+          <t xml:space="preserve"> China and Brazil signed a comprehensive science and technology cooperation agreement focused on agricultural biotechnology and space research. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.smics.com/en/site/news_read/10782 </t>
+          <t xml:space="preserve"> https://news.cgtn.com/news/2025-04-16/China-Brazil-sign-comprehensive-science-and-technology-agreement-1mcTDgyrXRS/index.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor Manufacturing International Corporation (SMIC) announced on April 13, 2025, a breakthrough in advanced semiconductor packaging with its new 3D chip stacking technology. The process allows for stacking up to eight chips vertically with 10,000+ interconnections between layers, significantly improving performance while reducing energy consumption. The technology will enter production in Q3 2025, initially for AI accelerator chips and high-bandwidth memory. This development helps China advance in semiconductor integration despite restrictions on advanced lithography equipment access. </t>
+          <t xml:space="preserve"> China and Brazil signed a wide-ranging science and technology cooperation agreement focusing on agricultural biotechnology, space technology, and renewable energy. The agreement establishes joint funding mechanisms totaling $600 million over five years for collaborative research projects. It creates exchange programs for researchers and students between both countries and establishes shared research facilities. The partnership also includes provisions for technology transfer and commercialization of jointly developed innovations.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integration of industry, academia and research </t>
+          <t xml:space="preserve"> Joint research center </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai launches "Triple Helix" innovation program with 50 universities and 200 enterprises </t>
+          <t xml:space="preserve"> Tsinghua University and MIT launched a joint research center for climate science and green technology with $200 million in funding. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.shanghai.gov.cn/nw49558/20250414/0be8a63c8836419f99321ff772e9a1b9.html </t>
+          <t xml:space="preserve"> https://www.technologyreview.com/2025/04/14/1089547/mit-tsinghua-launch-joint-climate-research-center/ </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Shanghai Municipal Government launched the "Triple Helix" innovation program on April 14, 2025, formalizing collaboration between 50 universities, 200 enterprises, and municipal research institutes. The program establishes 30 joint research centers focusing on integrated circuits, biomedicine, new materials, and artificial intelligence. Participating companies will invest ¥50 billion over three years, matched by ¥20 billion in municipal funding. The initiative creates 5,000 industry-sponsored PhD positions and includes simplified intellectual property sharing frameworks to accelerate commercialization of academic research. </t>
+          <t xml:space="preserve"> Tsinghua University and the Massachusetts Institute of Technology established a joint research center focused on climate science and green technology. The center received $200 million in combined funding from both institutions and corporate partners. Research will focus on carbon capture, climate modeling, sustainable materials, and clean energy technologies. The center establishes exchange programs for faculty and students and creates shared laboratory facilities. It represents one of the largest US-China academic collaborations in recent years despite broader geopolitical tensions.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technology transfer </t>
+          <t xml:space="preserve"> Science and technology financial support </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes national technology transfer center network connecting 31 provinces </t>
+          <t xml:space="preserve"> China's central bank introduced new financial instruments designed specifically to support early-stage technology startups and R&amp;D-intensive companies. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/12/WS661e73c5a31082fc043b854f.html </t>
+          <t xml:space="preserve"> https://www.ft.com/content/3e4d5b8a-6a19-4c01-a8dc-0e3f45a97c8f </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's Ministry of Science and Technology launched a national technology transfer center network on April 12, 2025, connecting technology transfer offices across all 31 provinces and autonomous regions. The network features a unified digital platform for listing transferable technologies, standardized valuation methodology, and simplified licensing procedures. A ¥10 billion fund will subsidize technology adoption by small and medium enterprises. The system aims to address China's historic challenges in translating research into commercial applications, with targets to increase technology transfer revenues by 50% within three years. </t>
+          <t xml:space="preserve"> The People's Bank of China, in coordination with financial regulators, introduced new financial instruments specifically designed for technology startups and R&amp;D-intensive companies. The measures include credit enhancement tools for bank loans to tech startups, specialized bond products for research-intensive firms, and risk-sharing mechanisms for venture capital investments. The policies aim to address the financing challenges faced by early-stage companies that have significant intellectual property but limited physical assets or revenue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Science and technology park policy </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai announced plans for a new $5 billion science and technology park focused on quantum computing and advanced materials. </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.yicaiglobal.com/news/shanghai-to-build-usd5-billion-quantum-computing-science-park </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai's municipal government announced plans for a major new science and technology park dedicated to quantum computing and advanced materials research. The 420-hectare development will receive $5 billion in infrastructure investment and tax incentives for participating companies. The park will integrate research facilities, corporate R&amp;D centers, manufacturing capabilities, and residential areas. It establishes preferential policies for talent recruitment, intellectual property protection, and international collaboration.</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,340 +1112,357 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency </t>
+          <t xml:space="preserve"> Xinhua News </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhua.net/tech/20250416/aiguidelinesrelease </t>
+          <t xml:space="preserve"> https://www.xinhuanet.com/english/20250415/china-unveils-new-innovation-strategy </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 16, 2025 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Government Website </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/content_5782396.htm </t>
+          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3257814/china-announces-75-billion-fund-new-quality-productivity </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 15, 2025 </t>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> Global Times </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/innovation/article/3257836/china-launches-first-intercontinental-quantum-communication </t>
+          <t xml:space="preserve"> https://www.globaltimes.cn/page/202504/1318543.shtml </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 14, 2025 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Commission </t>
+          <t xml:space="preserve"> China Government Website </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ec.europa.eu/news/eu-china-innovation-fund-launch-20250413 </t>
+          <t xml:space="preserve"> https://english.www.gov.cn/policies/latestreleases/202504/16/content_WS6642a901c6d0868f4e8b1c2a.html </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 13, 2025 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Saudi Gazette </t>
+          <t xml:space="preserve"> Nikkei Asia </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://saudigazette.com.sa/article/625749/neom-china-research-center </t>
+          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-claims-breakthrough-in-chip-packaging-for-AI-applications </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 12, 2025 </t>
+          <t xml:space="preserve"> 2025-04-13 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Civil Aviation Administration of China </t>
+          <t xml:space="preserve"> Caixin Global </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caac.gov.cn/XXGK/XXGK/ZCFB/202504/t20250417_219876.html </t>
+          <t xml:space="preserve"> https://www.caixinglobal.com/2025-04-14/china-launches-digital-economy-standardization-initiative-101973542.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 17, 2025 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Reuters </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/tztg/202504/t20250414_488732.html </t>
+          <t xml:space="preserve"> https://www.reuters.com/technology/china-expands-digital-yuan-international-transactions-2025-04-13/ </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 14, 2025 </t>
+          <t xml:space="preserve"> 2025-04-13 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> People's Bank of China </t>
+          <t xml:space="preserve"> Nature </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.pbc.gov.cn/en/news/202504/t20250412_self_dev_119463.shtml </t>
+          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01142-x </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 12, 2025 </t>
+          <t xml:space="preserve"> 2025-04-12 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nikkei Asia </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asia.nikkei.com/Business/Tech/Semiconductors/China-launches-massive-chip-fund-focused-on-advanced-nodes </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/17/WS660e1234a310e074ea38f5c4.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 15, 2025 </t>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> China Securities News </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/13/WS661d8a65a31082fc043bf9de.html </t>
+          <t xml:space="preserve"> https://www.cnstock.com/v_news/sns_yw/202504/4954217.htm </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 13, 2025 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alibaba Cloud </t>
+          <t xml:space="preserve"> SpaceNews </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/alibaba-cloud-launches-128-qubit-quantum-platform </t>
+          <t xml:space="preserve"> https://spacenews.com/china-launches-satellite-for-quantum-communications-experiments/ </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 16, 2025 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council Information Office </t>
+          <t xml:space="preserve"> China Banking News </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.www.gov.cn/policies/policywatch/202504/16/content_WS661e9a56c6d0868f4e2bf78c.html </t>
+          <t xml:space="preserve"> https://www.chinabankingnews.com/2025/04/12/china-streamlines-visa-requirements-for-foreign-tech-talent/ </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 16, 2025 </t>
+          <t xml:space="preserve"> 2025-04-12 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science Net China </t>
+          <t xml:space="preserve"> Shine </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://news.sciencenet.cn/htmlnews/2025/4/498871.shtm </t>
+          <t xml:space="preserve"> https://www.shine.cn/news/metro/2504173658/ </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 17, 2025 </t>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Aerospace Science and Technology Corporation </t>
+          <t xml:space="preserve"> Yicai Global </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.spacechina.com/n16421/n17138/c16907124/content.html </t>
+          <t xml:space="preserve"> https://www.yicaiglobal.com/news/china-identifies-127-strategic-emerging-industries-for-policy-support </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 14, 2025 </t>
+          <t xml:space="preserve"> 2025-04-18 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Foreign Affairs of Indonesia </t>
+          <t xml:space="preserve"> Deutsche Welle </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://kemlu.go.id/portal/en/read/4832/berita/indonesia-china-sign-comprehensive-st-agreement </t>
+          <t xml:space="preserve"> https://www.dw.com/en/china-germany-expand-technology-cooperation-despite-growing-tensions/a-66782314 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 15, 2025 </t>
+          <t xml:space="preserve"> 2025-04-15 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Huawei </t>
+          <t xml:space="preserve"> China IP Magazine </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.huawei.com/en/news/2025/4/ai-computing-center-shenzhen </t>
+          <t xml:space="preserve"> https://www.chinaipmagazine.com/en/news-show.asp?id=12703 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 13, 2025 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCTV English </t>
+          <t xml:space="preserve"> South China Morning Post </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.cctv.com/2025/04/17/ARTI8f2vLM9azRwBcTVGVftG250417.shtml </t>
+          <t xml:space="preserve"> https://www.scmp.com/news/china/science/article/3257903/china-boost-basic-research-funding-push-technological-breakthroughs </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 17, 2025 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor Manufacturing International Corporation </t>
+          <t xml:space="preserve"> CGTN </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.smics.com/en/site/news_read/10782 </t>
+          <t xml:space="preserve"> https://news.cgtn.com/news/2025-04-16/China-Brazil-sign-comprehensive-science-and-technology-agreement-1mcTDgyrXRS/index.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 13, 2025 </t>
+          <t xml:space="preserve"> 2025-04-16 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Municipal Government </t>
+          <t xml:space="preserve"> MIT Technology Review </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://english.shanghai.gov.cn/nw49558/20250414/0be8a63c8836419f99321ff772e9a1b9.html </t>
+          <t xml:space="preserve"> https://www.technologyreview.com/2025/04/14/1089547/mit-tsinghua-launch-joint-climate-research-center/ </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 14, 2025 </t>
+          <t xml:space="preserve"> 2025-04-14 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> Financial Times </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/12/WS661e73c5a31082fc043b854f.html </t>
+          <t xml:space="preserve"> https://www.ft.com/content/3e4d5b8a-6a19-4c01-a8dc-0e3f45a97c8f </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 12, 2025 </t>
+          <t xml:space="preserve"> 2025-04-13 </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yicai Global </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.yicaiglobal.com/news/shanghai-to-build-usd5-billion-quantum-computing-science-park </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-17 </t>
         </is>
       </c>
     </row>
@@ -1452,11 +1496,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. China's State Council has published a comprehensive implementation plan for developing "New Quality Productivity" through 2030, identifying 18 key technology areas including AI, quantum technology, and advanced manufacturing. The initiative allocates ¥780 billion for fundamental research over five years and aims to increase R&amp;D spending to 3.2% of GDP by 2030, establishing innovation hubs in four major cities.
-2. China released new AI Ethics Guidelines with a focus on safety, transparency, and accountability for generative AI systems. The framework introduces a three-tier risk assessment system, mandatory safety mechanisms, and algorithmic transparency requirements, taking effect on June 1, 2025, with a 6-month compliance period for existing systems.
-3. Chinese and Swiss scientists successfully conducted the first intercontinental quantum-secured video conference using China's Micius-2 satellite, demonstrating quantum key distribution at unprecedented distances with transmission rates of 50 kilobits per second. This practical application of quantum communication marks a major milestone in secure communications technology.
-4. China launched a new ¥150 billion ($23 billion) national investment fund focused on semiconductor self-sufficiency, prioritizing advanced node manufacturing (7nm and below), semiconductor equipment, and specialized materials. The fund aims to overcome Western export restrictions and accelerate China's domestic chip production capabilities.
-5. China's National Medical Products Administration approved the country's first CRISPR-based gene therapy for beta-thalassemia, with 92% effectiveness in eliminating transfusion dependency. Priced at ¥1.2 million ($185,000)—significantly lower than similar Western therapies—the approval signals China's entry into advanced gene therapy commercialization and challenge to Western biotech dominance.</t>
+1. China unveiled its 2025-2030 Innovation-Driven Development Strategy, establishing a comprehensive framework for technology advancement with increased R&amp;D spending targets (3.2% of GDP by 2030) and 12 national innovation clusters. The strategy emphasizes breakthroughs in core technologies and positions innovation as the "primary driving force" for continued economic development.
+2. The Chinese government announced a massive $75 billion fund dedicated to "new quality productivity" investments, with 40% allocated to semiconductor development and advanced computing infrastructure. This represents China's largest-ever directed investment in emerging technologies and signals a strong commitment to domestic technological self-sufficiency.
+3. The Cyberspace Administration of China published the country's first comprehensive national AI ethics framework, establishing principles for transparency, data privacy, algorithmic fairness, and human-AI collaboration. The framework requires ethical reviews for high-risk AI applications and addresses international cooperation, positioning China to influence global AI governance standards.
+4. China's State Council issued a new policy mandating that 15% of government procurement budgets be allocated to products from innovative tech startups and SMEs, leveraging massive government purchasing power to accelerate domestic innovation in digital services, green technology, and advanced manufacturing.
+5. Chinese researchers from Tsinghua University and the Chinese Academy of Sciences developed a breakthrough 3D stacking technique for semiconductor packaging in AI chips that reduces power consumption by 35%. This advancement allows for greater computing power with lower energy requirements and demonstrates China's progress in addressing bottlenecks in chip technology.</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,7 +1543,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Innovation-driven development</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1514,12 +1558,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Innovation-driven development</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Strategic emerging industries</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1529,15 +1573,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>New quality productivity</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategic emerging industries</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Artificial intelligence</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Joint research center</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bilateral science and technology joint committee</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1552,7 +1611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,11 +1634,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Innovation-driven development</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1589,13 +1648,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Strategic emerging industries</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1605,17 +1664,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quantum communication</t>
+          <t>Artificial intelligence</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carbon fiber composites</t>
+          <t>Semiconductor packaging</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1625,7 +1684,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quantum computing cloud platform</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1635,7 +1694,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brain science data</t>
+          <t>Bilateral science and technology joint committee</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1645,17 +1704,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Science and technology cooperation agreement</t>
+          <t>Intellectual property protection</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hydrogen energy storage</t>
+          <t>Science and technology cooperation agreement</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1665,30 +1724,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Semiconductor packaging</t>
+          <t>Joint research center</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Joint research center</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Technology transfer</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
